--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,19 +46,25 @@
     <t xml:space="preserve">backflipresource</t>
   </si>
   <si>
-    <t xml:space="preserve">Soap Bubble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM-Haoming Community Hat’s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoapBubble_adaptive.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SoapBubble_adaptive_climb.png</t>
+    <t xml:space="preserve">Gyudon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haoming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02haomingHat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyudon_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyudon_adaptive_back.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyudon_adaptive_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gyudon_adaptive_flip.png</t>
   </si>
 </sst>
 </file>
@@ -144,12 +150,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,10 +183,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.42"/>
@@ -222,11 +232,21 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+    </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t xml:space="preserve">gyudon_adaptive_flip.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narumi.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narumi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narumi2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">narumi2_flip.png</t>
   </si>
 </sst>
 </file>
@@ -150,16 +165,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,7 +194,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,11 +254,36 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t xml:space="preserve">narumi2_flip.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enoki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swan_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swan_climb_adaptive.png</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -121,6 +133,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,12 +184,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -194,7 +217,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,7 +307,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/CustomHatsGM.xlsx
+++ b/CustomHatsGM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t xml:space="preserve">swan_climb_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer_adaptive.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer_climb.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hammer_adaptive_flip.png</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,7 +339,26 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
